--- a/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>HBUV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,7 +758,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,23 +999,23 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,11 +1049,11 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1048,8 +1070,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,34 +1097,35 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>-100</v>
-      </c>
       <c r="H17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1116,34 +1142,37 @@
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,13 +1210,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1205,11 +1238,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1222,40 +1255,43 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1278,14 +1317,14 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1301,8 +1340,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
@@ -1310,37 +1349,40 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1354,8 +1396,11 @@
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,37 +1490,40 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1486,37 +1537,40 @@
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1530,8 +1584,11 @@
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,13 +1772,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1733,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1750,37 +1819,40 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -1794,8 +1866,11 @@
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,37 +1913,40 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -1882,57 +1960,63 @@
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,13 +2052,14 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,16 +2379,19 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3400</v>
       </c>
       <c r="F48" s="3">
         <v>3400</v>
@@ -2293,25 +2400,25 @@
         <v>3400</v>
       </c>
       <c r="H48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1700</v>
       </c>
       <c r="K48" s="3">
         <v>1700</v>
       </c>
       <c r="L48" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
+      <c r="N48" s="3">
+        <v>2200</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,31 +2567,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,16 +2661,19 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3400</v>
       </c>
       <c r="F54" s="3">
         <v>3400</v>
@@ -2557,25 +2682,25 @@
         <v>3400</v>
       </c>
       <c r="H54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1800</v>
       </c>
       <c r="K54" s="3">
         <v>1800</v>
       </c>
       <c r="L54" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="M54" s="3">
         <v>2200</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,31 +2793,34 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>4300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1800</v>
       </c>
       <c r="K58" s="3">
         <v>1800</v>
@@ -2699,16 +2832,19 @@
         <v>1800</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2719,7 +2855,7 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
@@ -2731,77 +2867,83 @@
         <v>500</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>2200</v>
       </c>
       <c r="L60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2839,34 +2981,37 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2877,14 +3022,17 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4100</v>
       </c>
       <c r="F66" s="3">
         <v>4100</v>
       </c>
       <c r="G66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2200</v>
       </c>
       <c r="K66" s="3">
         <v>2200</v>
       </c>
       <c r="L66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-500</v>
       </c>
       <c r="L72" s="3">
         <v>-500</v>
       </c>
       <c r="M72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="N72" s="3">
         <v>-400</v>
       </c>
       <c r="O72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,19 +3611,22 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E76" s="3">
         <v>-700</v>
       </c>
       <c r="F76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G76" s="3">
         <v>-600</v>
@@ -3450,10 +3635,10 @@
         <v>-600</v>
       </c>
       <c r="I76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
@@ -3462,19 +3647,22 @@
         <v>-400</v>
       </c>
       <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
         <v>-300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,86 +3705,92 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -3610,8 +3804,11 @@
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3660,8 +3858,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3913,22 +4129,22 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,16 +4173,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3980,8 +4200,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,16 +4312,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4118,8 +4347,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4339,37 +4584,40 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,13 +4660,16 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>HBUV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -761,7 +765,7 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,13 +1005,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1002,23 +1022,23 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,11 +1075,11 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1073,8 +1096,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,37 +1124,38 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>-100</v>
-      </c>
       <c r="I17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1145,37 +1172,40 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,17 +1244,18 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1241,11 +1275,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1258,43 +1292,46 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,14 +1360,14 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1343,8 +1383,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -1352,40 +1392,43 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1399,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,40 +1542,43 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1540,40 +1592,43 @@
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,16 +1842,19 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1805,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1822,40 +1892,43 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,40 +1992,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -1963,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,17 +2139,18 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,13 +2337,16 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,19 +2487,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3400</v>
       </c>
       <c r="G48" s="3">
         <v>3400</v>
@@ -2403,25 +2511,25 @@
         <v>3400</v>
       </c>
       <c r="I48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1700</v>
       </c>
       <c r="L48" s="3">
         <v>1700</v>
       </c>
       <c r="M48" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
+      <c r="O48" s="3">
+        <v>2200</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,16 +2687,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
@@ -2596,8 +2716,8 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,19 +2787,22 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3400</v>
       </c>
       <c r="G54" s="3">
         <v>3400</v>
@@ -2685,25 +2811,25 @@
         <v>3400</v>
       </c>
       <c r="I54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J54" s="3">
         <v>2700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1800</v>
       </c>
       <c r="L54" s="3">
         <v>1800</v>
       </c>
       <c r="M54" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="N54" s="3">
         <v>2200</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,34 +2927,37 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1800</v>
       </c>
       <c r="L58" s="3">
         <v>1800</v>
@@ -2835,16 +2969,19 @@
         <v>1800</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2858,7 +2995,7 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
@@ -2870,28 +3007,31 @@
         <v>500</v>
       </c>
       <c r="K59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2917,37 +3057,40 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>2200</v>
       </c>
       <c r="M60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E61" s="3">
         <v>7000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3010,11 +3156,11 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3025,14 +3171,17 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4100</v>
       </c>
       <c r="G66" s="3">
         <v>4100</v>
       </c>
       <c r="H66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2200</v>
       </c>
       <c r="L66" s="3">
         <v>2200</v>
       </c>
       <c r="M66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-500</v>
       </c>
       <c r="M72" s="3">
         <v>-500</v>
       </c>
       <c r="N72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="O72" s="3">
         <v>-400</v>
       </c>
       <c r="P72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,22 +3797,25 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-700</v>
       </c>
       <c r="F76" s="3">
         <v>-700</v>
       </c>
       <c r="G76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H76" s="3">
         <v>-600</v>
@@ -3638,10 +3824,10 @@
         <v>-600</v>
       </c>
       <c r="J76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
@@ -3650,19 +3836,22 @@
         <v>-400</v>
       </c>
       <c r="N76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,92 +3897,98 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3861,8 +4060,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4132,22 +4349,22 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,19 +4394,20 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-100</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4203,8 +4424,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,19 +4542,22 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4350,8 +4580,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,13 +4812,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -4587,37 +4833,40 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,17 +4912,20 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>HBUV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,7 +751,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -768,7 +772,7 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1025,23 +1045,23 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,11 +1101,11 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1099,8 +1122,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,40 +1151,41 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>-100</v>
-      </c>
       <c r="J17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1175,40 +1202,43 @@
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,11 +1288,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1278,11 +1312,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1295,46 +1329,49 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
+      <c r="O21" s="3">
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1363,14 +1403,14 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1386,8 +1426,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
@@ -1395,43 +1435,46 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,43 +1594,46 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1595,43 +1647,46 @@
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1878,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1895,43 +1965,46 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,43 +2071,46 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,11 +2236,11 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,16 +2436,19 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,22 +2595,25 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E48" s="3">
         <v>8000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3400</v>
       </c>
       <c r="H48" s="3">
         <v>3400</v>
@@ -2514,25 +2622,25 @@
         <v>3400</v>
       </c>
       <c r="J48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1700</v>
       </c>
       <c r="M48" s="3">
         <v>1700</v>
       </c>
       <c r="N48" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
+      <c r="P48" s="3">
+        <v>2200</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,19 +2807,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -2719,8 +2839,8 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,22 +2913,25 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E54" s="3">
         <v>8000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3400</v>
       </c>
       <c r="H54" s="3">
         <v>3400</v>
@@ -2814,25 +2940,25 @@
         <v>3400</v>
       </c>
       <c r="J54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1800</v>
       </c>
       <c r="M54" s="3">
         <v>1800</v>
       </c>
       <c r="N54" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="O54" s="3">
         <v>2200</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,37 +3061,40 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1800</v>
       </c>
       <c r="M58" s="3">
         <v>1800</v>
@@ -2972,16 +3106,19 @@
         <v>1800</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2998,7 +3135,7 @@
         <v>600</v>
       </c>
       <c r="H59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
@@ -3010,28 +3147,31 @@
         <v>500</v>
       </c>
       <c r="L59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3060,40 +3200,43 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
         <v>2200</v>
       </c>
       <c r="N60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E61" s="3">
         <v>7600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3159,11 +3305,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3174,14 +3320,17 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>4100</v>
       </c>
       <c r="H66" s="3">
         <v>4100</v>
       </c>
       <c r="I66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2200</v>
       </c>
       <c r="M66" s="3">
         <v>2200</v>
       </c>
       <c r="N66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,49 +3783,52 @@
         <v>-1600</v>
       </c>
       <c r="E72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-500</v>
       </c>
       <c r="N72" s="3">
         <v>-500</v>
       </c>
       <c r="O72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="P72" s="3">
         <v>-400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,16 +3995,16 @@
         <v>-900</v>
       </c>
       <c r="E76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-700</v>
       </c>
       <c r="G76" s="3">
         <v>-700</v>
       </c>
       <c r="H76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I76" s="3">
         <v>-600</v>
@@ -3827,10 +4013,10 @@
         <v>-600</v>
       </c>
       <c r="K76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L76" s="3">
         <v>-500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
@@ -3839,19 +4025,22 @@
         <v>-400</v>
       </c>
       <c r="O76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P76" s="3">
         <v>-300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,98 +4089,104 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4063,8 +4262,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,13 +4539,16 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4352,22 +4569,22 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4404,13 +4625,13 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-100</v>
-      </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4427,8 +4648,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,13 +4784,13 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-100</v>
-      </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4583,8 +4813,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -4836,37 +5082,40 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,20 +5164,23 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>HBUV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -775,7 +779,7 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1059,8 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1048,23 +1068,23 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1104,11 +1127,11 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1125,8 +1148,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,34 +1188,34 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>-100</v>
-      </c>
       <c r="K17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1205,43 +1232,46 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,11 +1325,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1315,11 +1349,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,40 +1378,40 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1406,14 +1446,14 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1429,8 +1469,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,37 +1490,37 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,37 +1658,37 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,37 +1714,37 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1951,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,37 +2050,37 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,37 +2162,37 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,23 +2313,24 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2450,8 +2549,8 @@
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,25 +2703,28 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E48" s="3">
         <v>8100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3400</v>
       </c>
       <c r="I48" s="3">
         <v>3400</v>
@@ -2625,25 +2733,25 @@
         <v>3400</v>
       </c>
       <c r="K48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1700</v>
       </c>
       <c r="N48" s="3">
         <v>1700</v>
       </c>
       <c r="O48" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
+      <c r="Q48" s="3">
+        <v>2200</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2821,11 +2941,11 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -2842,8 +2962,8 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,25 +3039,28 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E54" s="3">
         <v>8100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3400</v>
       </c>
       <c r="I54" s="3">
         <v>3400</v>
@@ -2943,25 +3069,25 @@
         <v>3400</v>
       </c>
       <c r="K54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1800</v>
       </c>
       <c r="N54" s="3">
         <v>1800</v>
       </c>
       <c r="O54" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="P54" s="3">
         <v>2200</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,31 +3207,31 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1800</v>
       </c>
       <c r="N58" s="3">
         <v>1800</v>
@@ -3109,16 +3243,19 @@
         <v>1800</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3138,7 +3275,7 @@
         <v>600</v>
       </c>
       <c r="I59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
@@ -3150,28 +3287,31 @@
         <v>500</v>
       </c>
       <c r="M59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3203,43 +3343,46 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>2200</v>
       </c>
       <c r="O60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E61" s="3">
         <v>7400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3308,11 +3454,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3323,14 +3469,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E66" s="3">
         <v>9000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4100</v>
       </c>
       <c r="I66" s="3">
         <v>4100</v>
       </c>
       <c r="J66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2200</v>
       </c>
       <c r="N66" s="3">
         <v>2200</v>
       </c>
       <c r="O66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3786,49 +3960,52 @@
         <v>-1600</v>
       </c>
       <c r="F72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-500</v>
       </c>
       <c r="O72" s="3">
         <v>-500</v>
       </c>
       <c r="P72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Q72" s="3">
         <v>-400</v>
       </c>
       <c r="R72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3998,16 +4184,16 @@
         <v>-900</v>
       </c>
       <c r="F76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-700</v>
       </c>
       <c r="H76" s="3">
         <v>-700</v>
       </c>
       <c r="I76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J76" s="3">
         <v>-600</v>
@@ -4016,10 +4202,10 @@
         <v>-600</v>
       </c>
       <c r="L76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M76" s="3">
         <v>-500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
@@ -4028,19 +4214,22 @@
         <v>-400</v>
       </c>
       <c r="P76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,37 +4354,37 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4265,8 +4464,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,17 +4756,20 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -4572,22 +4789,22 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,25 +4836,26 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-100</v>
-      </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4651,8 +4872,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,25 +5002,28 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4816,8 +5046,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,19 +5304,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -5085,37 +5331,40 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,23 +5416,26 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>HBUV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,106 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -782,7 +785,7 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,8 +1081,8 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1071,23 +1090,23 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,11 +1152,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1151,8 +1173,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,46 +1204,47 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
-        <v>-100</v>
-      </c>
       <c r="L17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1235,46 +1261,49 @@
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1345,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1328,11 +1361,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1352,11 +1385,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1369,52 +1402,55 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1449,14 +1488,14 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1472,8 +1511,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
@@ -1481,49 +1520,52 @@
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,49 +1697,52 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1705,49 +1756,52 @@
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2051,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2000,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2024,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2041,49 +2110,52 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,49 +2228,52 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,17 +2409,17 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,13 +2633,16 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>5</v>
@@ -2552,8 +2650,8 @@
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,28 +2810,31 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E48" s="3">
         <v>8700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3400</v>
       </c>
       <c r="J48" s="3">
         <v>3400</v>
@@ -2736,25 +2843,25 @@
         <v>3400</v>
       </c>
       <c r="L48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1700</v>
       </c>
       <c r="O48" s="3">
         <v>1700</v>
       </c>
       <c r="P48" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
+      <c r="R48" s="3">
+        <v>2200</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3046,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
@@ -2944,11 +3063,11 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -2965,8 +3084,8 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,28 +3164,31 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E54" s="3">
         <v>8900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3400</v>
       </c>
       <c r="J54" s="3">
         <v>3400</v>
@@ -3072,25 +3197,25 @@
         <v>3400</v>
       </c>
       <c r="L54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1800</v>
       </c>
       <c r="O54" s="3">
         <v>1800</v>
       </c>
       <c r="P54" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="Q54" s="3">
         <v>2200</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,43 +3328,46 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
       </c>
       <c r="F58" s="3">
+        <v>900</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1800</v>
       </c>
       <c r="O58" s="3">
         <v>1800</v>
@@ -3246,16 +3379,19 @@
         <v>1800</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3278,7 +3414,7 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
@@ -3290,28 +3426,31 @@
         <v>500</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3346,46 +3485,49 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
         <v>2200</v>
       </c>
       <c r="P60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3457,11 +3602,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3472,14 +3617,17 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E66" s="3">
         <v>9800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4100</v>
       </c>
       <c r="J66" s="3">
         <v>4100</v>
       </c>
       <c r="K66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2200</v>
       </c>
       <c r="O66" s="3">
         <v>2200</v>
       </c>
       <c r="P66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,13 +4118,16 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E72" s="3">
         <v>-1600</v>
@@ -3963,49 +4136,52 @@
         <v>-1600</v>
       </c>
       <c r="G72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-800</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-500</v>
       </c>
       <c r="P72" s="3">
         <v>-500</v>
       </c>
       <c r="Q72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="R72" s="3">
         <v>-400</v>
       </c>
       <c r="S72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T72" s="3">
         <v>-300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4354,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4187,16 +4372,16 @@
         <v>-900</v>
       </c>
       <c r="G76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H76" s="3">
         <v>-800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-700</v>
       </c>
       <c r="I76" s="3">
         <v>-700</v>
       </c>
       <c r="J76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K76" s="3">
         <v>-600</v>
@@ -4205,10 +4390,10 @@
         <v>-600</v>
       </c>
       <c r="M76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N76" s="3">
         <v>-500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-400</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
@@ -4217,19 +4402,22 @@
         <v>-400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,110 +4472,116 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4467,8 +4665,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>5</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,11 +4984,11 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -4792,22 +5008,22 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,19 +5066,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
-        <v>-100</v>
-      </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4875,8 +5095,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,19 +5243,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5049,8 +5278,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>5</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,22 +5549,25 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -5334,37 +5579,40 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,26 +5667,29 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>HBUV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,105 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
@@ -764,13 +772,13 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -788,10 +796,10 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -808,8 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1101,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
@@ -1084,35 +1124,35 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1126,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1155,14 +1201,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1176,17 +1222,23 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1257,10 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1217,41 +1271,41 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
@@ -1264,53 +1318,59 @@
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>200</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
@@ -1323,8 +1383,14 @@
       <c r="U18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,31 +1412,33 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1388,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1405,58 +1473,64 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>5</v>
@@ -1464,13 +1538,19 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1491,7 +1571,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1500,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1514,64 +1594,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1582,8 +1668,14 @@
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,55 +1798,61 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -1759,55 +1863,61 @@
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -1818,8 +1928,14 @@
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,31 +2188,37 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2096,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2113,55 +2253,61 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2172,8 +2318,14 @@
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,55 +2383,61 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2290,72 +2448,84 @@
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,32 +2572,34 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2459,8 +2633,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,28 +2828,34 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2695,8 +2893,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,8 +2958,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,67 +3023,79 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F48" s="3">
         <v>9300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>7400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3400</v>
       </c>
       <c r="L48" s="3">
         <v>3400</v>
       </c>
       <c r="M48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,31 +3283,37 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -3087,11 +3327,11 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F54" s="3">
         <v>9500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>3400</v>
       </c>
       <c r="L54" s="3">
         <v>3400</v>
       </c>
       <c r="M54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O54" s="3">
         <v>2700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3532,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,49 +3593,55 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1800</v>
       </c>
       <c r="Q58" s="3">
         <v>1800</v>
@@ -3382,16 +3650,22 @@
         <v>1800</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+        <v>1800</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3417,10 +3691,10 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
@@ -3429,28 +3703,34 @@
         <v>500</v>
       </c>
       <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3488,52 +3768,58 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F61" s="3">
         <v>9000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>8200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3605,14 +3897,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3620,14 +3912,20 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E72" s="3">
         <v>-1600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G72" s="3">
         <v>-1600</v>
       </c>
       <c r="H72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1000</v>
       </c>
       <c r="N72" s="3">
         <v>-900</v>
       </c>
       <c r="O72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,8 +4723,14 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4366,7 +4738,7 @@
         <v>-900</v>
       </c>
       <c r="E76" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F76" s="3">
         <v>-900</v>
@@ -4375,49 +4747,55 @@
         <v>-900</v>
       </c>
       <c r="H76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-600</v>
       </c>
       <c r="M76" s="3">
         <v>-600</v>
       </c>
       <c r="N76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P76" s="3">
         <v>-500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-400</v>
       </c>
       <c r="R76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,119 +4853,131 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -4598,8 +4988,14 @@
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4668,11 +5066,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>5</v>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4984,16 +5418,16 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -5011,16 +5445,16 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5029,13 +5463,19 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,34 +5497,36 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5098,11 +5540,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
@@ -5116,8 +5558,14 @@
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,34 +5688,40 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5281,11 +5741,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>5</v>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,19 +6053,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -5582,19 +6074,19 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -5606,13 +6098,19 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,31 +6168,37 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5727,6 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>HBUV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -802,7 +806,7 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,19 +1124,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1130,8 +1150,8 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1139,23 +1159,23 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,11 +1230,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1228,8 +1251,8 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>5</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,47 +1295,47 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
-        <v>-100</v>
-      </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
@@ -1324,55 +1351,58 @@
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>200</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,22 +1447,23 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1438,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1462,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1479,19 +1513,22 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
         <v>100</v>
@@ -1500,40 +1537,40 @@
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
+      <c r="T21" s="3">
+        <v>0</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>5</v>
@@ -1544,17 +1581,20 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
@@ -1577,13 +1617,13 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1600,8 +1640,8 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
@@ -1609,19 +1649,22 @@
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1630,37 +1673,37 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,19 +1853,22 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1825,37 +1877,37 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
@@ -1869,19 +1921,22 @@
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1890,37 +1945,37 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,22 +2261,25 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2218,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2242,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2259,19 +2329,22 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -2280,37 +2353,37 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,19 +2465,22 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2410,37 +2489,37 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,35 +2660,36 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2848,8 +2947,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
@@ -2857,8 +2956,8 @@
       <c r="I45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,37 +3134,40 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E48" s="3">
         <v>10900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>3400</v>
       </c>
       <c r="M48" s="3">
         <v>3400</v>
@@ -3068,25 +3176,25 @@
         <v>3400</v>
       </c>
       <c r="O48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P48" s="3">
         <v>2700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1700</v>
       </c>
       <c r="R48" s="3">
         <v>1700</v>
       </c>
       <c r="S48" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="T48" s="3">
         <v>2200</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
+      <c r="U48" s="3">
+        <v>2200</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3303,8 +3423,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -3312,11 +3432,11 @@
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
@@ -3333,8 +3453,8 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,37 +3542,40 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E54" s="3">
         <v>11000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3400</v>
       </c>
       <c r="M54" s="3">
         <v>3400</v>
@@ -3458,25 +3584,25 @@
         <v>3400</v>
       </c>
       <c r="O54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P54" s="3">
         <v>2700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1800</v>
       </c>
       <c r="R54" s="3">
         <v>1800</v>
       </c>
       <c r="S54" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="T54" s="3">
         <v>2200</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,52 +3730,55 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>3100</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
       </c>
       <c r="I58" s="3">
+        <v>900</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1800</v>
       </c>
       <c r="R58" s="3">
         <v>1800</v>
@@ -3656,16 +3790,19 @@
         <v>1800</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3697,7 +3834,7 @@
         <v>600</v>
       </c>
       <c r="M59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
@@ -3709,28 +3846,31 @@
         <v>500</v>
       </c>
       <c r="Q59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
-      </c>
-      <c r="U59" s="3">
-        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3774,28 +3914,31 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>2200</v>
       </c>
       <c r="S60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,26 +3946,26 @@
         <v>10100</v>
       </c>
       <c r="E61" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F61" s="3">
         <v>9400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3903,11 +4049,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3918,14 +4064,17 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E66" s="3">
         <v>11800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4100</v>
       </c>
       <c r="M66" s="3">
         <v>4100</v>
       </c>
       <c r="N66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2200</v>
       </c>
       <c r="R66" s="3">
         <v>2200</v>
       </c>
       <c r="S66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="W66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,22 +4640,25 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E72" s="3">
         <v>-1600</v>
       </c>
       <c r="F72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1600</v>
       </c>
       <c r="H72" s="3">
         <v>-1600</v>
@@ -4493,49 +4667,52 @@
         <v>-1600</v>
       </c>
       <c r="J72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-800</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-500</v>
       </c>
       <c r="S72" s="3">
         <v>-500</v>
       </c>
       <c r="T72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="U72" s="3">
         <v>-400</v>
       </c>
       <c r="V72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W72" s="3">
         <v>-300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,19 +4912,22 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-900</v>
       </c>
       <c r="G76" s="3">
         <v>-900</v>
@@ -4753,16 +4939,16 @@
         <v>-900</v>
       </c>
       <c r="J76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-700</v>
       </c>
       <c r="L76" s="3">
         <v>-700</v>
       </c>
       <c r="M76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N76" s="3">
         <v>-600</v>
@@ -4771,10 +4957,10 @@
         <v>-600</v>
       </c>
       <c r="P76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-400</v>
       </c>
       <c r="R76" s="3">
         <v>-400</v>
@@ -4783,19 +4969,22 @@
         <v>-400</v>
       </c>
       <c r="T76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U76" s="3">
         <v>-300</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
       </c>
       <c r="W76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,89 +5048,95 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -4950,37 +5145,37 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5072,8 +5271,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>5</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,28 +5623,31 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -5451,22 +5668,22 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,37 +5719,38 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5546,8 +5767,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,37 +5921,40 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5747,8 +5977,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>5</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6059,16 +6305,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -6080,37 +6326,40 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,34 +6423,37 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>HBUV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,133 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -809,7 +812,7 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,22 +1143,25 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -1153,8 +1172,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1162,23 +1181,23 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,11 +1255,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1254,8 +1276,8 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>5</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,59 +1311,60 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
-        <v>-100</v>
-      </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
@@ -1354,58 +1380,61 @@
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>200</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,25 +1480,26 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1475,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1499,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1516,22 +1549,25 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>200</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
@@ -1540,40 +1576,40 @@
         <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
+      <c r="U21" s="3">
+        <v>0</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>5</v>
@@ -1584,20 +1620,23 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
@@ -1620,13 +1659,13 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1643,8 +1682,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
@@ -1652,22 +1691,25 @@
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1676,37 +1718,37 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,22 +1904,25 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1880,37 +1931,37 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
@@ -1924,22 +1975,25 @@
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1948,37 +2002,37 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,25 +2330,28 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2291,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2315,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2332,22 +2401,25 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -2356,37 +2428,37 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,22 +2543,25 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -2492,37 +2570,37 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,38 +2746,39 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2950,8 +3048,8 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
@@ -2959,8 +3057,8 @@
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,40 +3241,43 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E48" s="3">
         <v>13100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>3400</v>
       </c>
       <c r="N48" s="3">
         <v>3400</v>
@@ -3179,25 +3286,25 @@
         <v>3400</v>
       </c>
       <c r="P48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1700</v>
       </c>
       <c r="S48" s="3">
         <v>1700</v>
       </c>
       <c r="T48" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="U48" s="3">
         <v>2200</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
+      <c r="V48" s="3">
+        <v>2200</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>5</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3426,8 +3545,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -3435,11 +3554,11 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
@@ -3456,8 +3575,8 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,40 +3667,43 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E54" s="3">
         <v>13200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>3400</v>
       </c>
       <c r="N54" s="3">
         <v>3400</v>
@@ -3587,25 +3712,25 @@
         <v>3400</v>
       </c>
       <c r="P54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2300</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1800</v>
       </c>
       <c r="S54" s="3">
         <v>1800</v>
       </c>
       <c r="T54" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="U54" s="3">
         <v>2200</v>
       </c>
       <c r="V54" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,55 +3863,58 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1000</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
       </c>
       <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>900</v>
       </c>
       <c r="J58" s="3">
+        <v>900</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1800</v>
       </c>
       <c r="S58" s="3">
         <v>1800</v>
@@ -3793,21 +3926,24 @@
         <v>1800</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
@@ -3837,7 +3973,7 @@
         <v>600</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
@@ -3849,28 +3985,31 @@
         <v>500</v>
       </c>
       <c r="R59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
       </c>
       <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3917,58 +4056,61 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>2200</v>
       </c>
       <c r="T60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10100</v>
+        <v>7800</v>
       </c>
       <c r="E61" s="3">
         <v>10100</v>
       </c>
       <c r="F61" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G61" s="3">
         <v>9400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4052,11 +4197,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4067,14 +4212,17 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E66" s="3">
         <v>13900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>4100</v>
       </c>
       <c r="N66" s="3">
         <v>4100</v>
       </c>
       <c r="O66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2200</v>
       </c>
       <c r="S66" s="3">
         <v>2200</v>
       </c>
       <c r="T66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U66" s="3">
         <v>2600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
-      <c r="X66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,25 +4813,28 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1600</v>
       </c>
       <c r="F72" s="3">
         <v>-1600</v>
       </c>
       <c r="G72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1600</v>
       </c>
       <c r="I72" s="3">
         <v>-1600</v>
@@ -4670,49 +4843,52 @@
         <v>-1600</v>
       </c>
       <c r="K72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-800</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-500</v>
       </c>
       <c r="T72" s="3">
         <v>-500</v>
       </c>
       <c r="U72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="V72" s="3">
         <v>-400</v>
       </c>
       <c r="W72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X72" s="3">
         <v>-300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,22 +5097,25 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-900</v>
       </c>
       <c r="H76" s="3">
         <v>-900</v>
@@ -4942,16 +5127,16 @@
         <v>-900</v>
       </c>
       <c r="K76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L76" s="3">
         <v>-800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-700</v>
       </c>
       <c r="M76" s="3">
         <v>-700</v>
       </c>
       <c r="N76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="O76" s="3">
         <v>-600</v>
@@ -4960,10 +5145,10 @@
         <v>-600</v>
       </c>
       <c r="Q76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R76" s="3">
         <v>-500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-400</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
@@ -4972,19 +5157,22 @@
         <v>-400</v>
       </c>
       <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
         <v>-300</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-200</v>
       </c>
       <c r="W76" s="3">
         <v>-200</v>
       </c>
       <c r="X76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,95 +5239,101 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -5148,37 +5342,37 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5274,8 +5472,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>5</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,31 +5839,34 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5671,22 +5887,22 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,40 +5939,41 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-100</v>
-      </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5770,8 +5990,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,40 +6150,43 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5980,8 +6209,8 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>5</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,13 +6532,16 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6308,16 +6553,16 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -6329,37 +6574,40 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,37 +6674,40 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>HBUV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,140 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -815,7 +819,7 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,14 +1177,14 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -1175,8 +1195,8 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1184,23 +1204,23 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,11 +1281,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1279,8 +1302,8 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>5</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,62 +1338,63 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
@@ -1383,61 +1410,64 @@
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>200</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,28 +1514,29 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1511,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1535,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,16 +1598,16 @@
         <v>200</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>200</v>
       </c>
       <c r="G21" s="3">
         <v>200</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
@@ -1579,40 +1616,40 @@
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
+      <c r="V21" s="3">
+        <v>0</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>5</v>
@@ -1623,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,14 +1672,14 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
@@ -1662,13 +1702,13 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1685,8 +1725,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>5</v>
@@ -1694,25 +1734,28 @@
       <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1721,37 +1764,37 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
@@ -1765,8 +1808,11 @@
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,25 +1956,28 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1934,37 +1986,37 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
@@ -1978,25 +2030,28 @@
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -2005,37 +2060,37 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
@@ -2049,8 +2104,11 @@
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,28 +2400,31 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2363,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2387,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2404,25 +2474,28 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2431,37 +2504,37 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
@@ -2475,8 +2548,11 @@
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,25 +2622,28 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2573,37 +2652,37 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
@@ -2617,84 +2696,90 @@
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,41 +2833,42 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,13 +3127,16 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3051,8 +3150,8 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3060,8 +3159,8 @@
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,43 +3349,46 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E48" s="3">
         <v>13900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>3400</v>
       </c>
       <c r="O48" s="3">
         <v>3400</v>
@@ -3289,25 +3397,25 @@
         <v>3400</v>
       </c>
       <c r="Q48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R48" s="3">
         <v>2700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1700</v>
       </c>
       <c r="T48" s="3">
         <v>1700</v>
       </c>
       <c r="U48" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="V48" s="3">
         <v>2200</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
+      <c r="W48" s="3">
+        <v>2200</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,13 +3645,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3548,8 +3668,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3557,11 +3677,11 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
@@ -3578,8 +3698,8 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,43 +3793,46 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E54" s="3">
         <v>14100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>3400</v>
       </c>
       <c r="O54" s="3">
         <v>3400</v>
@@ -3715,25 +3841,25 @@
         <v>3400</v>
       </c>
       <c r="Q54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R54" s="3">
         <v>2700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1800</v>
       </c>
       <c r="T54" s="3">
         <v>1800</v>
       </c>
       <c r="U54" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="V54" s="3">
         <v>2200</v>
       </c>
       <c r="W54" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="X54" s="3">
         <v>0</v>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3866,58 +3997,61 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E58" s="3">
         <v>6400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1000</v>
       </c>
       <c r="G58" s="3">
         <v>1000</v>
       </c>
       <c r="H58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>900</v>
       </c>
       <c r="J58" s="3">
         <v>900</v>
       </c>
       <c r="K58" s="3">
+        <v>900</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1800</v>
       </c>
       <c r="T58" s="3">
         <v>1800</v>
@@ -3929,16 +4063,19 @@
         <v>1800</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3946,7 +4083,7 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
@@ -3976,7 +4113,7 @@
         <v>600</v>
       </c>
       <c r="O59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
@@ -3988,28 +4125,31 @@
         <v>500</v>
       </c>
       <c r="S59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
       <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
-      </c>
-      <c r="W59" s="3">
-        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4059,61 +4199,64 @@
         <v>0</v>
       </c>
       <c r="S60" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="T60" s="3">
         <v>2200</v>
       </c>
       <c r="U60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V60" s="3">
         <v>2600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="Y60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>10100</v>
       </c>
       <c r="F61" s="3">
         <v>10100</v>
       </c>
       <c r="G61" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H61" s="3">
         <v>9400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4200,11 +4346,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4215,14 +4361,17 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
+      <c r="X62" s="3">
+        <v>0</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E66" s="3">
         <v>14900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>4100</v>
       </c>
       <c r="O66" s="3">
         <v>4100</v>
       </c>
       <c r="P66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2200</v>
       </c>
       <c r="T66" s="3">
         <v>2200</v>
       </c>
       <c r="U66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V66" s="3">
         <v>2600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
-      <c r="Y66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,28 +4987,31 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1600</v>
       </c>
       <c r="G72" s="3">
         <v>-1600</v>
       </c>
       <c r="H72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1600</v>
       </c>
       <c r="J72" s="3">
         <v>-1600</v>
@@ -4846,49 +5020,52 @@
         <v>-1600</v>
       </c>
       <c r="L72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-800</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-500</v>
       </c>
       <c r="U72" s="3">
         <v>-500</v>
       </c>
       <c r="V72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="W72" s="3">
         <v>-400</v>
       </c>
       <c r="X72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,25 +5283,28 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-900</v>
       </c>
       <c r="I76" s="3">
         <v>-900</v>
@@ -5130,16 +5316,16 @@
         <v>-900</v>
       </c>
       <c r="L76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M76" s="3">
         <v>-800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-700</v>
       </c>
       <c r="N76" s="3">
         <v>-700</v>
       </c>
       <c r="O76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="P76" s="3">
         <v>-600</v>
@@ -5148,10 +5334,10 @@
         <v>-600</v>
       </c>
       <c r="R76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S76" s="3">
         <v>-500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-400</v>
       </c>
       <c r="T76" s="3">
         <v>-400</v>
@@ -5160,19 +5346,22 @@
         <v>-400</v>
       </c>
       <c r="V76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W76" s="3">
         <v>-300</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
       </c>
       <c r="Y76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,101 +5431,107 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -5345,37 +5540,37 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
@@ -5389,8 +5584,11 @@
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5475,8 +5674,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>5</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5851,25 +6068,25 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5890,22 +6107,22 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,43 +6160,44 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-100</v>
-      </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5993,8 +6214,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,43 +6380,46 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-100</v>
-      </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6212,8 +6442,8 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>5</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,17 +6778,20 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -6556,16 +6802,16 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -6577,37 +6823,40 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,40 +6926,43 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBUV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>HBUV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,130 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,19 +796,19 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
@@ -798,22 +817,22 @@
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>400</v>
+      </c>
+      <c r="M8" s="3">
+        <v>300</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
@@ -822,19 +841,19 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
@@ -842,8 +861,23 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +950,23 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1039,23 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1082,13 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1161,23 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,19 +1250,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1186,26 +1285,26 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -1216,49 +1315,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1284,8 +1398,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1299,23 +1413,38 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1468,13 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1348,7 +1482,7 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1357,64 +1491,79 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>100</v>
-      </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,10 +1571,10 @@
         <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G18" s="3">
         <v>200</v>
@@ -1434,61 +1583,76 @@
         <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J18" s="3">
+        <v>300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1679,13 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,34 +1693,34 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1563,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1572,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1587,84 +1756,114 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F21" s="3">
         <v>300</v>
       </c>
       <c r="G21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H21" s="3">
         <v>200</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M21" s="3">
+        <v>200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1675,25 +1874,25 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1705,40 +1904,55 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1746,73 +1960,88 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +2114,23 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,8 +2203,23 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1968,73 +2227,88 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2042,73 +2316,88 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2470,23 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2559,23 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2648,23 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2737,23 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,34 +2761,34 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2451,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2460,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2475,10 +2824,25 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2486,73 +2850,88 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,8 +3004,23 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2634,152 +3028,182 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +3230,13 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,55 +3263,60 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2908,8 +3342,23 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3431,23 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3520,23 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,37 +3609,52 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3168,14 +3662,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3204,8 +3698,23 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3787,23 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,82 +3876,112 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>16900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I48" s="3">
         <v>16800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="J48" s="3">
         <v>13900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="K48" s="3">
         <v>13100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="L48" s="3">
         <v>10900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="M48" s="3">
         <v>10100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="N48" s="3">
         <v>9300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="O48" s="3">
         <v>8700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="P48" s="3">
         <v>8100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="Q48" s="3">
         <v>8000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="R48" s="3">
         <v>7400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="S48" s="3">
         <v>4100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="T48" s="3">
         <v>3400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="U48" s="3">
         <v>3400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="V48" s="3">
         <v>3400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="W48" s="3">
         <v>2700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="X48" s="3">
         <v>2200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="Y48" s="3">
         <v>1700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="Z48" s="3">
         <v>1700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="AA48" s="3">
         <v>2200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="AB48" s="3">
         <v>2200</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +4054,23 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +4143,23 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,43 +4232,58 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
@@ -3695,26 +4294,26 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3722,8 +4321,23 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +4410,112 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>17100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>17100</v>
+      </c>
+      <c r="I54" s="3">
         <v>16900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="J54" s="3">
         <v>14100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="K54" s="3">
         <v>13200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="L54" s="3">
         <v>11000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="M54" s="3">
         <v>10200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="N54" s="3">
         <v>9500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="3">
         <v>8900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="P54" s="3">
         <v>8100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="Q54" s="3">
         <v>8000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="R54" s="3">
         <v>7600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="S54" s="3">
         <v>4100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="T54" s="3">
         <v>3400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="U54" s="3">
         <v>3400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="V54" s="3">
         <v>3400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="W54" s="3">
         <v>2700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="X54" s="3">
         <v>2300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="Y54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="Z54" s="3">
         <v>1800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="AA54" s="3">
         <v>2200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="AB54" s="3">
         <v>2200</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4542,13 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,16 +4575,21 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -4000,105 +4654,135 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I58" s="3">
         <v>10100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="J58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="S58" s="3">
         <v>4300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="T58" s="3">
         <v>3600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="U58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="V58" s="3">
         <v>3400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="W58" s="3">
         <v>2800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="X58" s="3">
         <v>2300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="Y58" s="3">
         <v>1800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="Z58" s="3">
         <v>1800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="AA58" s="3">
         <v>1800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="AB58" s="3">
         <v>1800</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
-        <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
-      </c>
       <c r="J59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
@@ -4116,40 +4800,55 @@
         <v>600</v>
       </c>
       <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
+        <v>600</v>
+      </c>
+      <c r="S59" s="3">
+        <v>600</v>
+      </c>
+      <c r="T59" s="3">
+        <v>600</v>
+      </c>
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="AA59" s="3">
         <v>800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="AB59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AC59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AD59" s="3">
         <v>200</v>
       </c>
-      <c r="Z59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4202,76 +4901,91 @@
         <v>0</v>
       </c>
       <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="AA60" s="3">
         <v>2600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="AB60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AC60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AD60" s="3">
         <v>200</v>
       </c>
-      <c r="Z60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="G61" s="3">
         <v>7000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J61" s="3">
         <v>7800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="K61" s="3">
         <v>10100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="L61" s="3">
         <v>10100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="M61" s="3">
         <v>9400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="N61" s="3">
         <v>9000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="O61" s="3">
         <v>8200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="P61" s="3">
         <v>7400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="Q61" s="3">
         <v>7600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="R61" s="3">
         <v>7000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +5010,23 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4349,8 +5078,8 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4367,11 +5096,26 @@
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +5188,23 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +5277,23 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +5366,112 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>17900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>18000</v>
+      </c>
+      <c r="I66" s="3">
         <v>17800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="J66" s="3">
         <v>14900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="K66" s="3">
         <v>13900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="L66" s="3">
         <v>11800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="M66" s="3">
         <v>11000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="N66" s="3">
         <v>10400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="O66" s="3">
         <v>9800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="P66" s="3">
         <v>9000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="Q66" s="3">
         <v>8900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="R66" s="3">
         <v>8300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="S66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="U66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="V66" s="3">
         <v>4000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="W66" s="3">
         <v>3300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="X66" s="3">
         <v>2800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="Y66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="Z66" s="3">
         <v>2200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="AA66" s="3">
         <v>2600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="AB66" s="3">
         <v>2500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AC66" s="3">
         <v>300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AD66" s="3">
         <v>200</v>
       </c>
-      <c r="Z66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5498,13 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5577,23 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5666,23 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5755,23 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,8 +5844,23 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4999,16 +5868,16 @@
         <v>-1700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="I72" s="3">
         <v>-1700</v>
@@ -5017,55 +5886,70 @@
         <v>-1600</v>
       </c>
       <c r="K72" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="L72" s="3">
         <v>-1600</v>
       </c>
       <c r="M72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="S72" s="3">
         <v>-1300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="T72" s="3">
         <v>-1200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="U72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="V72" s="3">
         <v>-900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="W72" s="3">
         <v>-1000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="X72" s="3">
         <v>-900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="Y72" s="3">
         <v>-800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="Z72" s="3">
         <v>-500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="AA72" s="3">
         <v>-500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="AB72" s="3">
         <v>-400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AC72" s="3">
         <v>-400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AD72" s="3">
         <v>-300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AE72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +6022,23 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +6111,23 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +6200,23 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5295,25 +6224,25 @@
         <v>-900</v>
       </c>
       <c r="E76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F76" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="G76" s="3">
         <v>-900</v>
       </c>
       <c r="H76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I76" s="3">
         <v>-900</v>
       </c>
       <c r="J76" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K76" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="L76" s="3">
         <v>-900</v>
@@ -5322,46 +6251,61 @@
         <v>-800</v>
       </c>
       <c r="N76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="T76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="U76" s="3">
         <v>-600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="W76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="Z76" s="3">
         <v>-400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="AA76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="AB76" s="3">
         <v>-300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AC76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AD76" s="3">
         <v>-200</v>
       </c>
-      <c r="Z76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,87 +6378,117 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5522,73 +6496,88 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,25 +6604,30 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5677,20 +6671,35 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6772,23 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6861,23 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6950,23 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +7039,23 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +7128,23 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6068,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>100</v>
@@ -6092,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -6101,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6110,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6119,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -6128,13 +7212,28 @@
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +7260,102 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
-      </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +7428,23 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,58 +7517,73 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
-      </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6445,20 +7594,35 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +7649,13 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7728,23 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7817,23 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7906,23 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,32 +7995,47 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6814,22 +8043,22 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -6838,10 +8067,10 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6855,8 +8084,23 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +8173,23 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6938,23 +8197,23 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -6962,22 +8221,22 @@
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -7001,6 +8260,21 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
